--- a/Info Windows.xlsx
+++ b/Info Windows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josue\Documents\New folder\test123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB962E8-E65F-4FB9-A909-6F6563DCD985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F86A0E3-9BB2-492D-A296-219959FED95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{EF046F59-BF59-439E-9380-378B269F3B0C}"/>
+    <workbookView xWindow="960" yWindow="-15240" windowWidth="21600" windowHeight="11100" xr2:uid="{EF046F59-BF59-439E-9380-378B269F3B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,11 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +424,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,27 +433,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3">
+      <c r="F1">
         <f>COUNTA([1]!Table15[Malware])</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <f>COUNTIF([1]!Table137[Did MsDefender catch it?], "yes")/F1</f>
-        <v>0.71084337349397586</v>
-      </c>
-      <c r="B2" s="1">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="B2">
         <f>COUNTIF([1]!Table137[Did crytica caught it?], "yes")/F1</f>
         <v>1</v>
       </c>

--- a/Info Windows.xlsx
+++ b/Info Windows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josue\Documents\New folder\test123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F86A0E3-9BB2-492D-A296-219959FED95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2DEA4F-E777-4460-A80D-AB1BB6A4B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-15240" windowWidth="21600" windowHeight="11100" xr2:uid="{EF046F59-BF59-439E-9380-378B269F3B0C}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{EF046F59-BF59-439E-9380-378B269F3B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,13 +444,13 @@
       </c>
       <c r="F1">
         <f>COUNTA([1]!Table15[Malware])</f>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTIF([1]!Table137[Did MsDefender catch it?], "yes")/F1</f>
-        <v>0.70588235294117652</v>
+        <v>0.70930232558139539</v>
       </c>
       <c r="B2">
         <f>COUNTIF([1]!Table137[Did crytica caught it?], "yes")/F1</f>

--- a/Info Windows.xlsx
+++ b/Info Windows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josue\Documents\New folder\test123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2DEA4F-E777-4460-A80D-AB1BB6A4B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08E3AB5-2DA1-4803-9F28-ACDA02EAC620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{EF046F59-BF59-439E-9380-378B269F3B0C}"/>
+    <workbookView xWindow="1224" yWindow="2532" windowWidth="17280" windowHeight="8880" xr2:uid="{EF046F59-BF59-439E-9380-378B269F3B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,13 +444,13 @@
       </c>
       <c r="F1">
         <f>COUNTA([1]!Table15[Malware])</f>
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTIF([1]!Table137[Did MsDefender catch it?], "yes")/F1</f>
-        <v>0.70930232558139539</v>
+        <v>0.72631578947368425</v>
       </c>
       <c r="B2">
         <f>COUNTIF([1]!Table137[Did crytica caught it?], "yes")/F1</f>
